--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_02.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,1076 +505,8546 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702108.2523491</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702108.72805</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702108.2523491.png</t>
+          <t>1731871341.9217284</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702108.72805.png</t>
+          <t>1731871355.79367</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871341.9217284.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871355.79367.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2981.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2990</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>8.349999999999909</v>
+        <v>285.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0.28</v>
+        <v>285.52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.08000000000004093</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702111.1746922</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702112.5899062</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702111.1746922.png</t>
+          <t>1731871357.9121416</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702112.5899062.png</t>
+          <t>1731871360.6235294</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/SBER1731871357.9121416.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2981</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2974.4</v>
+          <t>./test_images/SBER1731871360.6235294.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>-6.599999999999909</v>
+        <v>286.23</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.22</v>
+        <v>286.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.08000000000004093</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702112.6826582</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702112.8522048</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702112.6826582.png</t>
+          <t>1731871363.113494</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702112.8522048.png</t>
+          <t>1731871364.1049883</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871363.113494.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871364.1049883.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2971.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2974.1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>284.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1</v>
+        <v>285.73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702112.9190605</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702113.2880406</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702112.9190605.png</t>
+          <t>1731871364.1199486</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702113.2880406.png</t>
+          <t>1731871364.168507</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871364.1199486.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871364.168507.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2976.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2974.7</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>2.050000000000182</v>
+        <v>285.73</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06999999999999999</v>
+        <v>285.73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702113.584276</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731702114.0101361</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702113.584276.png</t>
+          <t>1731871364.2396543</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702114.0101361.png</t>
+          <t>1731871364.318151</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871364.2396543.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871364.318151.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2971.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2975.35</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>4.25</v>
+        <v>285.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0.14</v>
+        <v>285.58</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731702114.1258268</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731702114.7261934</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702114.1258268.png</t>
+          <t>1731871365.1180058</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702114.7261934.png</t>
+          <t>1731871365.4122133</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBER1731871365.1180058.png</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2976.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2973.45</v>
+          <t>./test_images/SBER1731871365.4122133.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>2.700000000000273</v>
+        <v>285.47</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09</v>
+        <v>285.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731702114.949628</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731702116.1613834</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702114.949628.png</t>
+          <t>1731871365.7053885</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702116.1613834.png</t>
+          <t>1731871366.1043622</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871365.7053885.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871366.1043622.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2970.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2967.4</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>-2.900000000000091</v>
+        <v>285.11</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1</v>
+        <v>285.23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731702116.5363812</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1731702116.7088914</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702116.5363812.png</t>
+          <t>1731871366.1781344</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702116.7088914.png</t>
+          <t>1731871366.9048376</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871366.1781344.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871366.9048376.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2968.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2961.8</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>6.699999999999818</v>
+        <v>285.35</v>
       </c>
       <c r="L10" t="n">
-        <v>0.23</v>
+        <v>285.46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1099999999999568</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1731702117.1527321</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1731702118.0942147</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702117.1527321.png</t>
+          <t>1731871367.0149083</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702118.0942147.png</t>
+          <t>1731871367.1234825</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871367.0149083.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871367.1234825.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2960.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2961.95</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>1.399999999999636</v>
+        <v>285.45</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05</v>
+        <v>285.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1731702118.5649283</t>
-        </is>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1731702119.4825022</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702118.5649283.png</t>
+          <t>1731871367.1656325</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702119.4825022.png</t>
+          <t>1731871368.452569</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871367.1656325.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871368.452569.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>2965.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2963.3</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>2.199999999999818</v>
+        <v>285.77</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06999999999999999</v>
+        <v>285.93</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.160000000000025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1731702120.3551404</t>
-        </is>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1731702121.5270667</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702120.3551404.png</t>
+          <t>1731871368.467531</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702121.5270667.png</t>
+          <t>1731871368.5456474</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBER1731871368.467531.png</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>2977.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2975</v>
+          <t>./test_images/SBER1731871368.5456474.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>285.93</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08</v>
+        <v>285.89</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.04000000000002046</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1731702122.0287054</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1731702122.7353354</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702122.0287054.png</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702122.7353354.png</t>
-        </is>
-      </c>
+          <t>1731871368.9223313</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2970.05</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2966.65</v>
+          <t>./test_images/SBER1731871368.9223313.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>-3.400000000000091</v>
+        <v>285.94</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.11</v>
+        <v>286.24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1731702122.9527256</t>
-        </is>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1731702123.495275</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702122.9527256.png</t>
+          <t>1731871374.2481403</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702123.495275.png</t>
+          <t>1731871383.958274</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731871374.2481403.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871383.958274.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>2958.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2963.05</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>4.950000000000273</v>
+        <v>131.41</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>130.64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.7700000000000102</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1731702124.0647533</t>
-        </is>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1731702124.4766517</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702124.0647533.png</t>
+          <t>1731871385.9498117</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702124.4766517.png</t>
+          <t>1731871390.2868981</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731871385.9498117.png</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2959.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2962.2</v>
+          <t>./test_images/GAZP1731871390.2868981.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>2.849999999999909</v>
+        <v>131.73</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1</v>
+        <v>131.03</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1731702124.6142838</t>
-        </is>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1731702124.9374456</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702124.6142838.png</t>
+          <t>1731871391.9080853</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702124.9374456.png</t>
+          <t>1731871392.0348537</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731871391.9080853.png</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2964.35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2962.5</v>
+          <t>./test_images/GAZP1731871392.0348537.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>1.849999999999909</v>
+        <v>130.74</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06</v>
+        <v>130.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2099999999999795</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1731702126.048501</t>
-        </is>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1731702126.3855712</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.048501.png</t>
+          <t>1731871393.16595</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.3855712.png</t>
+          <t>1731871393.777789</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731871393.16595.png</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2961.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2963.65</v>
+          <t>./test_images/GAZP1731871393.777789.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>1.800000000000182</v>
+        <v>130.94</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06</v>
+        <v>131.02</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1731702126.4005315</t>
-        </is>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1731702126.4394276</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.4005315.png</t>
+          <t>1731871394.245485</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.4394276.png</t>
+          <t>1731871394.9377625</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731871394.245485.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871394.9377625.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2963.65</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2962.6</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K19" t="n">
-        <v>1.050000000000182</v>
+        <v>131.39</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04</v>
+        <v>131.14</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1731702126.6279235</t>
-        </is>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1731702126.7406218</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.6279235.png</t>
+          <t>1731871395.0705435</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702126.7406218.png</t>
+          <t>1731871395.3970692</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731871395.0705435.png</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2963.05</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2962.65</v>
+          <t>./test_images/GAZP1731871395.3970692.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>0.4000000000000909</v>
+        <v>131.11</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01</v>
+        <v>131.13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1731702127.1300905</t>
-        </is>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1731702127.8115084</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702127.1300905.png</t>
+          <t>1731871395.4440975</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702127.8115084.png</t>
+          <t>1731871395.7490435</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731871395.4440975.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871395.7490435.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2964.95</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2963.9</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K21" t="n">
-        <v>1.049999999999727</v>
+        <v>131.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04</v>
+        <v>131.27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.0700000000000216</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1731702128.857132</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702128.857132.png</t>
+          <t>1731871397.2051253</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731871397.2051253.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>131.28</v>
+      </c>
+      <c r="L22" t="n">
+        <v>131.29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731871397.6860452</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731871398.7373486</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871397.6860452.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871398.7373486.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6657.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6710.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>53</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731871402.185803</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731871411.467755</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871402.185803.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871411.467755.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6650.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6627.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-23</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731871412.0812073</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731871413.2500346</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871412.0812073.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871413.2500346.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6632</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6634.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731871414.4146016</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731871417.3306718</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871414.4146016.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871417.3306718.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6601</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6597</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731871417.536943</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731871417.8590667</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871417.536943.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871417.8590667.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6590</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6599.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731871417.9084666</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731871418.439984</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871417.9084666.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871418.439984.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>6600</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6600</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731871418.669611</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731871418.9017475</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871418.669611.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871418.9017475.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6600</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6601.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731871418.9423912</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731871419.2369082</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871418.9423912.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.2369082.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6602</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6600.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731871419.3968709</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731871419.546094</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.3968709.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.546094.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>6600</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6601</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731871419.5610547</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731871419.7105737</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.5610547.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.7105737.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6601</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6599</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731871419.7255607</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731871419.7679949</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.7255607.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.7679949.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6599</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6600</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731871419.7839518</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731871419.8258398</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.7839518.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871419.8258398.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6600</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6600</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731871420.174073</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731871420.2971168</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.174073.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.2971168.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>6601</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6600.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731871420.622243</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731871420.9091215</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.622243.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.9091215.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6601.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6596</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731871420.9240816</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731871420.9660256</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.9240816.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871420.9660256.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>6596</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6601.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731871421.8200052</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731871422.031695</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871421.8200052.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871422.031695.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>507.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.550000000000011</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731871429.1760843</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731871430.9063745</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871429.1760843.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871430.9063745.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>506.65</v>
+      </c>
+      <c r="L39" t="n">
+        <v>507.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.150000000000034</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731871431.8823879</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731871433.3797462</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871431.8823879.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871433.3797462.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>504.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>506.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.849999999999966</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731871439.478761</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731871440.2291415</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871439.478761.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871440.2291415.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>504.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>504.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731871440.6422656</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731871440.874057</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871440.6422656.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871440.874057.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>504.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>504.45</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731871441.3198001</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731871442.1618884</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871441.3198001.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871442.1618884.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>504.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731871444.0879889</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731871444.3721397</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871444.0879889.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871444.3721397.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>504.85</v>
+      </c>
+      <c r="L44" t="n">
+        <v>504.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731871445.504831</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731871447.418121</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871445.504831.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871447.418121.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>228.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>229.84</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.539999999999992</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731871453.893167</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731871457.4530623</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871453.893167.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871457.4530623.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>227.79</v>
+      </c>
+      <c r="L46" t="n">
+        <v>228.07</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731871459.388515</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731871462.6162922</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871459.388515.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871462.6162922.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>229.66</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731871466.2274153</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731871466.5391016</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871466.2274153.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871466.5391016.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>230.03</v>
+      </c>
+      <c r="L48" t="n">
+        <v>230.28</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731871467.1008358</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731871467.8886907</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871467.1008358.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871467.8886907.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>230.39</v>
+      </c>
+      <c r="L49" t="n">
+        <v>230.37</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731871468.555922</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731871469.2541075</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871468.555922.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871469.2541075.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>230.31</v>
+      </c>
+      <c r="L50" t="n">
+        <v>230.48</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1699999999999875</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731871469.3588724</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731871469.6574178</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871469.3588724.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871469.6574178.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>230.39</v>
+      </c>
+      <c r="L51" t="n">
+        <v>230.46</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0700000000000216</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731871469.7998922</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731871469.9388983</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871469.7998922.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871469.9388983.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>230.07</v>
+      </c>
+      <c r="L52" t="n">
+        <v>230.37</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731871470.4608731</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731871471.0298972</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871470.4608731.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871471.0298972.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>230.16</v>
+      </c>
+      <c r="L53" t="n">
+        <v>230.24</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731871471.2570603</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731871471.4357433</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871471.2570603.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871471.4357433.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1034.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731871475.7710018</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731871485.2128332</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871475.7710018.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871485.2128332.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1022.8</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731871492.6689239</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731871493.258272</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871492.6689239.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871493.258272.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1018</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.399999999999977</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731871493.9177346</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731871494.9733205</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871493.9177346.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871494.9733205.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1018</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731871497.1900747</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731871497.4707215</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871497.1900747.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871497.4707215.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.857</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.002000000000000668</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731871497.4866784</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731871497.597509</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871497.4866784.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871497.597509.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>11.857</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.858</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.001000000000001222</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731871497.8176355</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731871498.009886</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871497.8176355.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871498.009886.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11.855</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.003999999999999559</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731871498.8226817</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871498.8226817.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731871501.2858815</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731871509.0934033</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871501.2858815.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871509.0934033.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>128.18</v>
+      </c>
+      <c r="L62" t="n">
+        <v>128.04</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.1400000000000148</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731871516.6791716</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731871518.701605</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871516.6791716.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871518.701605.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>128.52</v>
+      </c>
+      <c r="L63" t="n">
+        <v>128</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5200000000000102</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731871523.459297</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731871524.3859973</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871523.459297.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871524.3859973.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731871525.3847516</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871525.3847516.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>127.72</v>
+      </c>
+      <c r="L65" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731871531.3275282</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731871539.7567916</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871531.3275282.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871539.7567916.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>163.86</v>
+      </c>
+      <c r="L66" t="n">
+        <v>165.28</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.419999999999987</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731871541.2887833</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731871543.5479863</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871541.2887833.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871543.5479863.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>166</v>
+      </c>
+      <c r="L67" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731871547.2998664</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731871547.9960938</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871547.2998664.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871547.9960938.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>165.22</v>
+      </c>
+      <c r="L68" t="n">
+        <v>165.28</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731871548.7384584</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731871548.8714497</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871548.7384584.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871548.8714497.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>165.26</v>
+      </c>
+      <c r="L69" t="n">
+        <v>165.32</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731871548.967859</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731871550.3169413</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871548.967859.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871550.3169413.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>165.18</v>
+      </c>
+      <c r="L70" t="n">
+        <v>165.18</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731871550.972607</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871550.972607.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>165.32</v>
+      </c>
+      <c r="L71" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731871563.8613791</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731871564.188349</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871563.8613791.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871564.188349.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="L72" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1199999999999974</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731871565.4384553</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731871566.900865</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871565.4384553.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871566.900865.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="L73" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731871572.1089678</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731871573.9821634</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871572.1089678.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871573.9821634.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>50.345</v>
+      </c>
+      <c r="L74" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.03500000000000369</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731871575.314714</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731871575.963779</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871575.314714.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871575.963779.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>50.395</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.004999999999995453</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731871585.605744</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731871590.8508575</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871585.605744.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871590.8508575.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1401.2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1408</v>
+      </c>
+      <c r="M76" t="n">
+        <v>6.799999999999955</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731871592.8221524</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731871595.819165</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871592.8221524.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871595.819165.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1393.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M77" t="n">
+        <v>6.799999999999955</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731871595.9186473</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731871596.3360677</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871595.9186473.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871596.3360677.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1400.2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1399.2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731871596.351025</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731871596.4167614</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871596.351025.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871596.4167614.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1399.2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1399.6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731871596.759906</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731871597.299093</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871596.759906.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871597.299093.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1398.8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1399.6</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731871597.4165516</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731871597.7042859</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871597.4165516.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871597.7042859.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1400.2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1399</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731871597.8952777</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731871598.1803594</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871597.8952777.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871598.1803594.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1400.2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1399</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731871608.3519032</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731871612.0335262</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871608.3519032.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871612.0335262.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>60.14</v>
+      </c>
+      <c r="L83" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731871619.174136</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731871619.4011269</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.174136.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.4011269.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="L84" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731871619.4425063</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731871619.505038</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.4425063.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.505038.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="L85" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731871619.520993</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731871619.6610274</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.520993.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.6610274.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="L86" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731871619.7039146</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731871619.790699</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.7039146.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.790699.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>60.18</v>
+      </c>
+      <c r="L87" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731871619.8345776</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731871620.7758465</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871619.8345776.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871620.7758465.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="L88" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731871621.0553417</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731871621.2126327</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871621.0553417.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871621.2126327.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="L89" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.05000000000000426</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731871621.400641</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731871623.1216393</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871621.400641.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871623.1216393.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="L90" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731871624.9218488</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731871624.9218488.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>97.55</v>
+      </c>
+      <c r="L91" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731871630.9536848</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731871633.9803636</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871630.9536848.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871633.9803636.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="L92" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731871639.159114</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731871642.4665709</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871639.159114.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871642.4665709.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="L93" t="n">
+        <v>56.92</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731871646.3798003</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731871647.1590703</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871646.3798003.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871647.1590703.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="L94" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731871647.1998053</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731871647.4902544</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871647.1998053.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871647.4902544.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="L95" t="n">
+        <v>56.85</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731871647.7028296</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731871647.8283796</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871647.7028296.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871647.8283796.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>57.07</v>
+      </c>
+      <c r="L96" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731871649.5254312</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871649.5254312.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="L97" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731871650.6857924</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731871650.8263779</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871650.6857924.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871650.8263779.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>144.42</v>
+      </c>
+      <c r="L98" t="n">
+        <v>144.12</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.2999999999999829</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731871654.8783085</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731871656.2161157</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871654.8783085.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871656.2161157.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L99" t="n">
+        <v>143.46</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.960000000000008</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731871664.4119365</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731871666.5621045</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871664.4119365.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871666.5621045.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="L100" t="n">
+        <v>145.36</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731871670.1894042</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731871670.558173</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871670.1894042.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871670.558173.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="L101" t="n">
+        <v>144.84</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.1400000000000148</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731871670.8858788</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731871671.1954982</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871670.8858788.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871671.1954982.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>145.12</v>
+      </c>
+      <c r="L102" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731871671.2793117</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731871673.0122776</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871671.2793117.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871673.0122776.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>145.98</v>
+      </c>
+      <c r="L103" t="n">
+        <v>145.22</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.7599999999999909</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731871673.9763656</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871673.9763656.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="L104" t="n">
+        <v>145.26</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731871674.404821</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731871674.456775</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871674.404821.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871674.456775.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="L105" t="n">
+        <v>20.853</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.006999999999997897</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731871678.0558484</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1731871686.397343</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871678.0558484.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871686.397343.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="L106" t="n">
+        <v>20.739</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.09400000000000119</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731871688.7306364</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731871689.71696</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871688.7306364.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871689.71696.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>20.933</v>
+      </c>
+      <c r="L107" t="n">
+        <v>20.849</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.08399999999999963</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731871693.7647555</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731871694.0339665</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871693.7647555.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871694.0339665.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>20.696</v>
+      </c>
+      <c r="L108" t="n">
+        <v>20.735</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.03899999999999793</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731871694.049924</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731871695.727717</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871694.049924.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871695.727717.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>20.735</v>
+      </c>
+      <c r="L109" t="n">
+        <v>20.877</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-0.1419999999999995</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731871695.7436786</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731871695.7854</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871695.7436786.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871695.7854.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>20.877</v>
+      </c>
+      <c r="L110" t="n">
+        <v>20.884</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.00700000000000145</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731871695.8013573</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731871696.396685</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871695.8013573.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871696.396685.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>20.884</v>
+      </c>
+      <c r="L111" t="n">
+        <v>20.885</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731871697.6875196</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731871701.0632734</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871697.6875196.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871701.0632734.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>676</v>
+      </c>
+      <c r="L112" t="n">
+        <v>676.55</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.5499999999999545</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731871701.8777933</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731871711.7433722</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871701.8777933.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871711.7433722.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>672.65</v>
+      </c>
+      <c r="L113" t="n">
+        <v>668.2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-4.449999999999932</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731871714.0124836</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1731871716.1032917</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871714.0124836.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871716.1032917.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>673.3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>672.5</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731871716.792736</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731871717.0607235</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871716.792736.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871717.0607235.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>673.95</v>
+      </c>
+      <c r="L115" t="n">
+        <v>673.6</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731871717.1631565</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731871717.4543667</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871717.1631565.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871717.4543667.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>673.6</v>
+      </c>
+      <c r="L116" t="n">
+        <v>673.6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731871717.4703343</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731871717.9315732</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871717.4703343.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871717.9315732.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>673.6</v>
+      </c>
+      <c r="L117" t="n">
+        <v>673.6</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731871718.1682744</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731871718.2478817</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871718.1682744.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871718.2478817.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>673.65</v>
+      </c>
+      <c r="L118" t="n">
+        <v>673.65</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731871718.3517532</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731871718.7358046</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871718.3517532.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871718.7358046.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>674</v>
+      </c>
+      <c r="L119" t="n">
+        <v>674.05</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731871719.4423785</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871719.4423785.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>674.65</v>
+      </c>
+      <c r="L120" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-2.800000000000068</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731871721.6608324</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731871724.4958785</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871721.6608324.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871724.4958785.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0.09868</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.09968</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731871734.247913</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731871734.7660534</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871734.247913.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871734.7660534.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0.09864000000000001</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.09976</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.001119999999999996</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731871740.7795203</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731871741.2186568</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871740.7795203.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871741.2186568.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0.09882000000000001</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.09894000000000001</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.000120000000000009</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731871744.314116</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731871750.5577781</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871744.314116.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871750.5577781.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.001400000000000068</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731871756.8195176</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731871760.4621413</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871756.8195176.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871760.4621413.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.6004</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.001599999999999935</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731871765.5434558</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1731871765.6367757</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871765.5434558.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871765.6367757.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0.6031000000000001</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.001100000000000101</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1731871766.4655614</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1731871767.102858</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871766.4655614.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871767.102858.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>2981.65</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2990</v>
+      </c>
+      <c r="M127" t="n">
+        <v>8.349999999999909</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1731871770.0133843</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1731871771.6395035</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871770.0133843.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871771.6395035.png</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2974.4</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-6.599999999999909</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1731871771.7437506</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1731871771.9359043</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871771.7437506.png</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871771.9359043.png</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>2971.1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2974.1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1731871772.0133064</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1731871772.4217222</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871772.0133064.png</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871772.4217222.png</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>2976.75</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2974.7</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.050000000000182</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1731871772.7773294</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1731871773.2744076</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871772.7773294.png</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871773.2744076.png</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>2971.1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2975.35</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1731871773.4049819</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1731871774.1219041</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871773.4049819.png</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871774.1219041.png</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>2976.15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2973.45</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2.700000000000273</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1731871774.3768017</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1731871775.7840855</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871774.3768017.png</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871775.7840855.png</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>2970.3</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2967.4</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-2.900000000000091</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1731871776.2228973</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1731871776.4165127</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871776.2228973.png</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871776.4165127.png</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>2968.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2961.8</v>
+      </c>
+      <c r="M134" t="n">
+        <v>6.699999999999818</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1731871776.9476233</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1731871778.0044215</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871776.9476233.png</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871778.0044215.png</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>2960.55</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2961.95</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.399999999999636</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1731871778.562311</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1731871779.5812173</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871778.562311.png</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871779.5812173.png</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>2965.5</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2963.3</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2.199999999999818</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1731871780.5803974</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1731871781.9375367</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871780.5803974.png</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871781.9375367.png</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>2977.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2975</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1731871782.5062144</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1731871783.3235567</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871782.5062144.png</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871783.3235567.png</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>2970.05</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2966.65</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-3.400000000000091</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1731871783.5752635</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1731871784.1974943</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871783.5752635.png</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871784.1974943.png</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>2958.1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2963.05</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4.950000000000273</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1731871785.0548334</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1731871785.5395043</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871785.0548334.png</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871785.5395043.png</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>2959.35</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2962.2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.849999999999909</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1731871785.6965253</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1731871786.1156206</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871785.6965253.png</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871786.1156206.png</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>2964.35</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2962.5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.849999999999909</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1731871787.3936074</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1731871787.7781005</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871787.3936074.png</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871787.7781005.png</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>2961.85</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2963.65</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.800000000000182</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1731871787.7940578</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1731871787.836528</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871787.7940578.png</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871787.836528.png</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>2963.65</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2962.6</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.050000000000182</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1731871788.0537338</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1731871788.1798842</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871788.0537338.png</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871788.1798842.png</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>2963.05</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2962.65</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1731871788.4145644</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1731871789.2861714</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871788.4145644.png</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871789.2861714.png</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>2964.95</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2963.9</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.049999999999727</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1731871790.4946954</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871790.4946954.png</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
         <v>2967.15</v>
       </c>
-      <c r="J22" t="n">
-        <v>2967.15</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
+      <c r="L146" t="n">
+        <v>2965.3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.849999999999909</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1731871795.0722806</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1731871800.6896052</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871795.0722806.png</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871800.6896052.png</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>34.235</v>
+      </c>
+      <c r="L147" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1731871803.9773626</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1731871804.2253892</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871803.9773626.png</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871804.2253892.png</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="L148" t="n">
+        <v>34.365</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1731871810.9101243</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1731871811.325412</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871810.9101243.png</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871811.325412.png</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>34.195</v>
+      </c>
+      <c r="L149" t="n">
+        <v>34.185</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1731871811.4551146</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731871811.4551146.png</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>34.215</v>
+      </c>
+      <c r="L150" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-0.004999999999995453</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +9058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1625,16 +9105,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.19999999999982</v>
+        <v>36.04999999999973</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.709999999999991</v>
+        <v>1.802499999999986</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="F2" t="n">
         <v>0.06</v>
@@ -1643,20 +9123,460 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.433333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.650000000000006</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2944444444444451</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-5.600000000000023</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.6222222222222248</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.8400000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2499999999999147</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03124999999998934</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1900000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.210000000000008</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02625000000000099</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.780000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2542857142857144</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.150000000000091</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.021428571428584</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.08799999999999741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0125714285714282</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4300000000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.19999999999982</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.599999999999974</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.939999999999998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.323333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07166666666666661</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2799999999999869</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06999999999999673</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.799999999999955</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9499999999999886</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.480000000000004</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.120000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.008750000000000924</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.002999999999998337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.0007499999999995843</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.004100000000000104</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.001366666666666701</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.002240000000000006</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0007466666666666686</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
